--- a/7711 Bible memorization/Scripture design v1.1.xlsx
+++ b/7711 Bible memorization/Scripture design v1.1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Documents\Study\memory\repo\7711 Bible memorization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B563E4A-210F-4BD1-A914-4CB3A1CA9929}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99F21EBC-A643-41C8-B09F-B53C62E7A596}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10996" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1035" yWindow="885" windowWidth="22965" windowHeight="12615" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Books" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2389" uniqueCount="1531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2456" uniqueCount="1539">
   <si>
     <t>Matthew 1</t>
   </si>
@@ -4630,6 +4630,30 @@
   </si>
   <si>
     <t>swinging from columns to a glade like Tarzan.</t>
+  </si>
+  <si>
+    <t>Division</t>
+  </si>
+  <si>
+    <t>Law</t>
+  </si>
+  <si>
+    <t>History</t>
+  </si>
+  <si>
+    <t>Poetic</t>
+  </si>
+  <si>
+    <t>Major P</t>
+  </si>
+  <si>
+    <t>Minor P</t>
+  </si>
+  <si>
+    <t>Paul's letters</t>
+  </si>
+  <si>
+    <t>General</t>
   </si>
 </sst>
 </file>
@@ -4704,7 +4728,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4717,8 +4741,14 @@
         <bgColor theme="4"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -4735,11 +4765,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4784,11 +4825,52 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="27">
+  <dxfs count="28">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -5233,62 +5315,63 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B8484DD4-9611-4FEB-890B-36E5485720E0}" name="Table2" displayName="Table2" ref="A1:F67" totalsRowShown="0" dataDxfId="25" headerRowBorderDxfId="26" tableBorderDxfId="24" totalsRowBorderDxfId="23">
-  <autoFilter ref="A1:F67" xr:uid="{B8484DD4-9611-4FEB-890B-36E5485720E0}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{123EE763-016F-41C7-86DC-EB402BB1F773}" name="#" dataDxfId="22"/>
-    <tableColumn id="2" xr3:uid="{62A68F30-57D7-4138-8C7E-FF9085D4BC66}" name="Book" dataDxfId="21"/>
-    <tableColumn id="3" xr3:uid="{980518D6-D3A0-40EA-9ABE-7E6F5F1B4D4D}" name="peg" dataDxfId="20"/>
-    <tableColumn id="4" xr3:uid="{900B1DAF-4C28-4666-9B17-EA052E3000E9}" name="bookMn" dataDxfId="19"/>
-    <tableColumn id="5" xr3:uid="{C82E8DDD-5A02-4F74-8940-A5ACBEBD400E}" name="bookPalace" dataDxfId="18"/>
-    <tableColumn id="6" xr3:uid="{F29D823D-452F-437E-85D3-DAC7705E9F91}" name="notes" dataDxfId="17"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B8484DD4-9611-4FEB-890B-36E5485720E0}" name="Table2" displayName="Table2" ref="A1:G67" totalsRowShown="0" dataDxfId="26" headerRowBorderDxfId="27" tableBorderDxfId="25" totalsRowBorderDxfId="24">
+  <autoFilter ref="A1:G67" xr:uid="{B8484DD4-9611-4FEB-890B-36E5485720E0}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{123EE763-016F-41C7-86DC-EB402BB1F773}" name="#" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{62A68F30-57D7-4138-8C7E-FF9085D4BC66}" name="Book" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{980518D6-D3A0-40EA-9ABE-7E6F5F1B4D4D}" name="peg" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{900B1DAF-4C28-4666-9B17-EA052E3000E9}" name="bookMn" dataDxfId="20"/>
+    <tableColumn id="5" xr3:uid="{C82E8DDD-5A02-4F74-8940-A5ACBEBD400E}" name="bookPalace" dataDxfId="19"/>
+    <tableColumn id="6" xr3:uid="{F29D823D-452F-437E-85D3-DAC7705E9F91}" name="notes" dataDxfId="18"/>
+    <tableColumn id="7" xr3:uid="{E3B0C0E2-1235-4334-9FFA-52A185AD0E5C}" name="Division" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{45629848-38B4-48BB-8430-1B4F1156DD07}" name="Table1" displayName="Table1" ref="A1:F262" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15" tableBorderDxfId="14" dataCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{45629848-38B4-48BB-8430-1B4F1156DD07}" name="Table1" displayName="Table1" ref="A1:F262" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16" tableBorderDxfId="15" dataCellStyle="Normal">
   <autoFilter ref="A1:F262" xr:uid="{45629848-38B4-48BB-8430-1B4F1156DD07}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{2FFC54D5-672D-4CD5-8B52-05E32CF4BA69}" name="Book Chapter" dataDxfId="13" dataCellStyle="Normal"/>
-    <tableColumn id="2" xr3:uid="{C5974EE8-C98C-4AAF-8FBD-7498A2871CA0}" name="Book peg" dataDxfId="12" dataCellStyle="Normal"/>
-    <tableColumn id="3" xr3:uid="{5426CB83-611A-409C-8A38-99C85C4AA82C}" name="Book palace" dataDxfId="11" dataCellStyle="Normal"/>
-    <tableColumn id="4" xr3:uid="{30991109-6327-4232-BBA1-4EF74C5F1AC1}" name="Book journey connector" dataDxfId="10" dataCellStyle="Normal"/>
-    <tableColumn id="5" xr3:uid="{46B98281-5714-4FF2-9047-AB063D653E92}" name="Chapter number peg" dataDxfId="9" dataCellStyle="Normal"/>
-    <tableColumn id="6" xr3:uid="{52421674-3BAD-4D64-B323-607C3C770B02}" name="Combined chapter memory image" dataDxfId="8" dataCellStyle="Normal"/>
+    <tableColumn id="1" xr3:uid="{2FFC54D5-672D-4CD5-8B52-05E32CF4BA69}" name="Book Chapter" dataDxfId="14" dataCellStyle="Normal"/>
+    <tableColumn id="2" xr3:uid="{C5974EE8-C98C-4AAF-8FBD-7498A2871CA0}" name="Book peg" dataDxfId="13" dataCellStyle="Normal"/>
+    <tableColumn id="3" xr3:uid="{5426CB83-611A-409C-8A38-99C85C4AA82C}" name="Book palace" dataDxfId="12" dataCellStyle="Normal"/>
+    <tableColumn id="4" xr3:uid="{30991109-6327-4232-BBA1-4EF74C5F1AC1}" name="Book journey connector" dataDxfId="11" dataCellStyle="Normal"/>
+    <tableColumn id="5" xr3:uid="{46B98281-5714-4FF2-9047-AB063D653E92}" name="Chapter number peg" dataDxfId="10" dataCellStyle="Normal"/>
+    <tableColumn id="6" xr3:uid="{52421674-3BAD-4D64-B323-607C3C770B02}" name="Combined chapter memory image" dataDxfId="9" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{361BB9F4-CAF0-40C9-98D0-DEA8165E1780}" name="Table4" displayName="Table4" ref="A1:F134" totalsRowShown="0" headerRowDxfId="7" dataCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{361BB9F4-CAF0-40C9-98D0-DEA8165E1780}" name="Table4" displayName="Table4" ref="A1:F134" totalsRowShown="0" headerRowDxfId="8" dataCellStyle="Normal">
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{881B2D37-4026-4CF4-99C9-B01A1C12F004}" name="Book Chapter" dataCellStyle="Normal"/>
-    <tableColumn id="6" xr3:uid="{803D99AA-6F23-4924-A647-A22FAB445AA1}" name="Book journey connector" dataDxfId="6">
+    <tableColumn id="6" xr3:uid="{803D99AA-6F23-4924-A647-A22FAB445AA1}" name="Book journey connector" dataDxfId="7">
       <calculatedColumnFormula>_xlfn.XLOOKUP(Table4[[#This Row],[Book Chapter]],'NT Chapters'!A:A,'NT Chapters'!D:D)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{698456E7-B002-4D92-BCF3-C050FDD373AC}" name="Chapter number peg" dataDxfId="5">
+    <tableColumn id="7" xr3:uid="{698456E7-B002-4D92-BCF3-C050FDD373AC}" name="Chapter number peg" dataDxfId="6">
       <calculatedColumnFormula>_xlfn.XLOOKUP(Table4[[#This Row],[Book Chapter]],'NT Chapters'!A:A,'NT Chapters'!E:E)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{E2353AB0-B32A-4A16-9E4A-B9F0AA2126F6}" name="Verse peg" dataCellStyle="Normal"/>
     <tableColumn id="3" xr3:uid="{C2CCB336-5D9A-41D7-BD25-E143D390D267}" name="Full reference" dataCellStyle="Normal"/>
-    <tableColumn id="4" xr3:uid="{B4587D38-A0A6-4687-A4F4-FA576E76B72A}" name="Verse" dataDxfId="4" dataCellStyle="Normal"/>
+    <tableColumn id="4" xr3:uid="{B4587D38-A0A6-4687-A4F4-FA576E76B72A}" name="Verse" dataDxfId="5" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{DC69D3AF-A50E-4A05-93C3-2E6DB52B9552}" name="Table5" displayName="Table5" ref="A1:E79" totalsRowShown="0" headerRowBorderDxfId="3" tableBorderDxfId="2" totalsRowBorderDxfId="1" dataCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{DC69D3AF-A50E-4A05-93C3-2E6DB52B9552}" name="Table5" displayName="Table5" ref="A1:E79" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3" totalsRowBorderDxfId="2" dataCellStyle="Normal">
   <autoFilter ref="A1:E79" xr:uid="{DC69D3AF-A50E-4A05-93C3-2E6DB52B9552}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{F2617DB9-361F-4F25-88B6-0F5B8B8126D8}" name="#" dataCellStyle="Normal"/>
     <tableColumn id="2" xr3:uid="{FCE0BB47-A75F-425D-A2E7-3D0D4BF73707}" name="Book" dataCellStyle="Normal"/>
     <tableColumn id="3" xr3:uid="{9DA047AE-526D-4D42-A2A8-7E3AB55D7A69}" name="versePeg" dataCellStyle="Normal"/>
     <tableColumn id="4" xr3:uid="{C6C850BC-9DB7-49BC-93FC-F86A950FFC9F}" name="refFull" dataCellStyle="Normal"/>
-    <tableColumn id="5" xr3:uid="{19441A2C-7E87-4A63-8381-485F0A981F6F}" name="Verse" dataDxfId="0" dataCellStyle="Normal"/>
+    <tableColumn id="5" xr3:uid="{19441A2C-7E87-4A63-8381-485F0A981F6F}" name="Verse" dataDxfId="1" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5557,23 +5640,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A98FA1B-D7BF-45CA-A047-E19DA5D95C04}">
-  <dimension ref="A1:F67"/>
+  <dimension ref="A1:G67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="G62" sqref="G62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.265625" style="10" customWidth="1"/>
-    <col min="3" max="3" width="8.1328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.86328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.265625" customWidth="1"/>
-    <col min="6" max="6" width="46.1328125" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.28515625" customWidth="1"/>
+    <col min="6" max="6" width="46.140625" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>1012</v>
       </c>
@@ -5592,8 +5676,11 @@
       <c r="F1" t="s">
         <v>848</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G1" s="18" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
         <v>1</v>
       </c>
@@ -5610,8 +5697,11 @@
         <v>851</v>
       </c>
       <c r="F2" s="9"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G2" s="20" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>2</v>
       </c>
@@ -5628,8 +5718,11 @@
         <v>853</v>
       </c>
       <c r="F3" s="9"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G3" s="20" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>3</v>
       </c>
@@ -5646,8 +5739,11 @@
         <v>855</v>
       </c>
       <c r="F4" s="9"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G4" s="20" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>4</v>
       </c>
@@ -5664,8 +5760,11 @@
         <v>858</v>
       </c>
       <c r="F5" s="9"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G5" s="20" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>5</v>
       </c>
@@ -5682,8 +5781,11 @@
         <v>860</v>
       </c>
       <c r="F6" s="9"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G6" s="20" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>6</v>
       </c>
@@ -5700,8 +5802,11 @@
         <v>862</v>
       </c>
       <c r="F7" s="9"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G7" s="19" t="s">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>7</v>
       </c>
@@ -5718,8 +5823,11 @@
         <v>864</v>
       </c>
       <c r="F8" s="9"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G8" s="19" t="s">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>8</v>
       </c>
@@ -5736,8 +5844,11 @@
         <v>866</v>
       </c>
       <c r="F9" s="9"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G9" s="19" t="s">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>9</v>
       </c>
@@ -5754,8 +5865,11 @@
         <v>869</v>
       </c>
       <c r="F10" s="9"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G10" s="19" t="s">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>10</v>
       </c>
@@ -5772,8 +5886,11 @@
         <v>871</v>
       </c>
       <c r="F11" s="9"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G11" s="19" t="s">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>11</v>
       </c>
@@ -5790,8 +5907,11 @@
         <v>873</v>
       </c>
       <c r="F12" s="9"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G12" s="19" t="s">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>12</v>
       </c>
@@ -5808,8 +5928,11 @@
         <v>875</v>
       </c>
       <c r="F13" s="9"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G13" s="19" t="s">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <v>13</v>
       </c>
@@ -5826,8 +5949,11 @@
         <v>877</v>
       </c>
       <c r="F14" s="9"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G14" s="19" t="s">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>14</v>
       </c>
@@ -5844,8 +5970,11 @@
         <v>879</v>
       </c>
       <c r="F15" s="9"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G15" s="19" t="s">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>15</v>
       </c>
@@ -5862,8 +5991,11 @@
         <v>881</v>
       </c>
       <c r="F16" s="9"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G16" s="19" t="s">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>16</v>
       </c>
@@ -5880,8 +6012,11 @@
         <v>884</v>
       </c>
       <c r="F17" s="9"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G17" s="19" t="s">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
         <v>17</v>
       </c>
@@ -5898,8 +6033,11 @@
         <v>887</v>
       </c>
       <c r="F18" s="9"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G18" s="19" t="s">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
         <v>18</v>
       </c>
@@ -5916,8 +6054,11 @@
         <v>890</v>
       </c>
       <c r="F19" s="9"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G19" s="19" t="s">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
         <v>19</v>
       </c>
@@ -5934,8 +6075,11 @@
         <v>893</v>
       </c>
       <c r="F20" s="9"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G20" s="19" t="s">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
         <v>20</v>
       </c>
@@ -5952,8 +6096,11 @@
         <v>896</v>
       </c>
       <c r="F21" s="9"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G21" s="19" t="s">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
         <v>21</v>
       </c>
@@ -5970,8 +6117,11 @@
         <v>898</v>
       </c>
       <c r="F22" s="9"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G22" s="19" t="s">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="12">
         <v>22</v>
       </c>
@@ -5988,8 +6138,11 @@
         <v>901</v>
       </c>
       <c r="F23" s="9"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G23" s="19" t="s">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
         <v>23</v>
       </c>
@@ -6006,8 +6159,11 @@
         <v>904</v>
       </c>
       <c r="F24" s="9"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G24" s="19" t="s">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="12">
         <v>24</v>
       </c>
@@ -6026,8 +6182,11 @@
       <c r="F25" s="9" t="s">
         <v>908</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G25" s="19" t="s">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="12">
         <v>25</v>
       </c>
@@ -6044,8 +6203,11 @@
         <v>910</v>
       </c>
       <c r="F26" s="9"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G26" s="19" t="s">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="12">
         <v>26</v>
       </c>
@@ -6062,8 +6224,11 @@
         <v>913</v>
       </c>
       <c r="F27" s="9"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G27" s="19" t="s">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="12">
         <v>27</v>
       </c>
@@ -6080,8 +6245,11 @@
         <v>916</v>
       </c>
       <c r="F28" s="9"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G28" s="19" t="s">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="12">
         <v>28</v>
       </c>
@@ -6098,8 +6266,11 @@
         <v>918</v>
       </c>
       <c r="F29" s="9"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G29" s="19" t="s">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="12">
         <v>29</v>
       </c>
@@ -6116,8 +6287,11 @@
         <v>921</v>
       </c>
       <c r="F30" s="9"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G30" s="19" t="s">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="12">
         <v>30</v>
       </c>
@@ -6134,8 +6308,11 @@
         <v>924</v>
       </c>
       <c r="F31" s="9"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G31" s="19" t="s">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="12">
         <v>31</v>
       </c>
@@ -6152,8 +6329,11 @@
         <v>927</v>
       </c>
       <c r="F32" s="9"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G32" s="19" t="s">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="12">
         <v>32</v>
       </c>
@@ -6170,8 +6350,11 @@
         <v>930</v>
       </c>
       <c r="F33" s="9"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G33" s="19" t="s">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="12">
         <v>33</v>
       </c>
@@ -6188,8 +6371,11 @@
         <v>933</v>
       </c>
       <c r="F34" s="9"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G34" s="19" t="s">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="12">
         <v>34</v>
       </c>
@@ -6208,8 +6394,11 @@
       <c r="F35" s="9" t="s">
         <v>937</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G35" s="19" t="s">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="12">
         <v>35</v>
       </c>
@@ -6228,8 +6417,11 @@
       <c r="F36" s="9" t="s">
         <v>941</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G36" s="19" t="s">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="12">
         <v>36</v>
       </c>
@@ -6246,8 +6438,11 @@
         <v>944</v>
       </c>
       <c r="F37" s="9"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G37" s="19" t="s">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="12">
         <v>37</v>
       </c>
@@ -6264,8 +6459,11 @@
         <v>947</v>
       </c>
       <c r="F38" s="9"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G38" s="19" t="s">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="12">
         <v>38</v>
       </c>
@@ -6284,8 +6482,11 @@
       <c r="F39" s="9" t="s">
         <v>951</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G39" s="19" t="s">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="12">
         <v>39</v>
       </c>
@@ -6302,8 +6503,11 @@
         <v>954</v>
       </c>
       <c r="F40" s="9"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G40" s="19" t="s">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="12">
         <v>1</v>
       </c>
@@ -6322,8 +6526,11 @@
       <c r="F41" s="9" t="s">
         <v>1523</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G41" s="19" t="s">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="12">
         <v>2</v>
       </c>
@@ -6342,8 +6549,11 @@
       <c r="F42" s="9" t="s">
         <v>1524</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G42" s="19" t="s">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="12">
         <v>3</v>
       </c>
@@ -6362,8 +6572,11 @@
       <c r="F43" s="9" t="s">
         <v>1525</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G43" s="19" t="s">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="12">
         <v>4</v>
       </c>
@@ -6382,8 +6595,11 @@
       <c r="F44" s="9" t="s">
         <v>1526</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G44" s="19" t="s">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="12">
         <v>5</v>
       </c>
@@ -6402,8 +6618,11 @@
       <c r="F45" s="9" t="s">
         <v>1527</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G45" s="19" t="s">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="12">
         <v>6</v>
       </c>
@@ -6422,8 +6641,11 @@
       <c r="F46" s="9" t="s">
         <v>1528</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G46" s="19" t="s">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="12">
         <v>7</v>
       </c>
@@ -6442,8 +6664,11 @@
       <c r="F47" s="9" t="s">
         <v>1529</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G47" s="19" t="s">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="12">
         <v>8</v>
       </c>
@@ -6462,8 +6687,11 @@
       <c r="F48" s="9" t="s">
         <v>1530</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G48" s="19" t="s">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="12">
         <v>9</v>
       </c>
@@ -6482,8 +6710,11 @@
       <c r="F49" s="9" t="s">
         <v>972</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G49" s="19" t="s">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="12">
         <v>10</v>
       </c>
@@ -6502,8 +6733,11 @@
       <c r="F50" s="9" t="s">
         <v>1518</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G50" s="19" t="s">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="12">
         <v>11</v>
       </c>
@@ -6522,8 +6756,11 @@
       <c r="F51" s="9" t="s">
         <v>978</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G51" s="19" t="s">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="12">
         <v>12</v>
       </c>
@@ -6542,8 +6779,11 @@
       <c r="F52" s="9" t="s">
         <v>980</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G52" s="19" t="s">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="12">
         <v>13</v>
       </c>
@@ -6560,8 +6800,11 @@
         <v>491</v>
       </c>
       <c r="F53" s="9"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G53" s="19" t="s">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="12">
         <v>14</v>
       </c>
@@ -6578,8 +6821,11 @@
         <v>984</v>
       </c>
       <c r="F54" s="9"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G54" s="19" t="s">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="12">
         <v>15</v>
       </c>
@@ -6596,8 +6842,11 @@
         <v>986</v>
       </c>
       <c r="F55" s="9"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G55" s="19" t="s">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="12">
         <v>16</v>
       </c>
@@ -6614,8 +6863,11 @@
         <v>496</v>
       </c>
       <c r="F56" s="9"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G56" s="19" t="s">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="12">
         <v>17</v>
       </c>
@@ -6632,8 +6884,11 @@
         <v>498</v>
       </c>
       <c r="F57" s="9"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G57" s="19" t="s">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="12">
         <v>18</v>
       </c>
@@ -6650,8 +6905,11 @@
         <v>500</v>
       </c>
       <c r="F58" s="9"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G58" s="19" t="s">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="12">
         <v>19</v>
       </c>
@@ -6668,8 +6926,11 @@
         <v>502</v>
       </c>
       <c r="F59" s="9"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G59" s="19" t="s">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="12">
         <v>20</v>
       </c>
@@ -6688,8 +6949,11 @@
       <c r="F60" s="9" t="s">
         <v>995</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G60" s="19" t="s">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="12">
         <v>21</v>
       </c>
@@ -6706,8 +6970,11 @@
         <v>997</v>
       </c>
       <c r="F61" s="9"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G61" s="19" t="s">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="12">
         <v>22</v>
       </c>
@@ -6724,8 +6991,11 @@
         <v>515</v>
       </c>
       <c r="F62" s="9"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G62" s="19" t="s">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="12">
         <v>23</v>
       </c>
@@ -6744,8 +7014,11 @@
       <c r="F63" s="9" t="s">
         <v>1001</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G63" s="19" t="s">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="12">
         <v>24</v>
       </c>
@@ -6762,8 +7035,11 @@
         <v>905</v>
       </c>
       <c r="F64" s="9"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G64" s="19" t="s">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="12">
         <v>25</v>
       </c>
@@ -6780,8 +7056,11 @@
         <v>1005</v>
       </c>
       <c r="F65" s="9"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G65" s="19" t="s">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="12">
         <v>26</v>
       </c>
@@ -6798,8 +7077,11 @@
         <v>1008</v>
       </c>
       <c r="F66" s="9"/>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G66" s="19" t="s">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="12">
         <v>27</v>
       </c>
@@ -6817,6 +7099,9 @@
       </c>
       <c r="F67" s="9" t="s">
         <v>980</v>
+      </c>
+      <c r="G67" s="19" t="s">
+        <v>1538</v>
       </c>
     </row>
   </sheetData>
@@ -6840,18 +7125,18 @@
       <selection pane="bottomLeft" activeCell="D174" sqref="D174"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.3984375" style="15" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" style="15" customWidth="1"/>
     <col min="2" max="2" width="5" style="14" customWidth="1"/>
-    <col min="3" max="3" width="13.1328125" style="13" customWidth="1"/>
-    <col min="4" max="4" width="18.265625" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" style="13" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" style="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="60.3984375" style="13" customWidth="1"/>
-    <col min="7" max="16384" width="9.1328125" style="9"/>
+    <col min="6" max="6" width="60.42578125" style="13" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>1512</v>
       </c>
@@ -6871,7 +7156,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>0</v>
       </c>
@@ -6891,7 +7176,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
@@ -6911,7 +7196,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>4</v>
       </c>
@@ -6931,7 +7216,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>6</v>
       </c>
@@ -6951,7 +7236,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>8</v>
       </c>
@@ -6971,7 +7256,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>10</v>
       </c>
@@ -6991,7 +7276,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>12</v>
       </c>
@@ -7011,7 +7296,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>14</v>
       </c>
@@ -7031,7 +7316,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>16</v>
       </c>
@@ -7051,7 +7336,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>18</v>
       </c>
@@ -7071,7 +7356,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>20</v>
       </c>
@@ -7091,7 +7376,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>22</v>
       </c>
@@ -7111,7 +7396,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>24</v>
       </c>
@@ -7131,7 +7416,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>26</v>
       </c>
@@ -7151,7 +7436,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>28</v>
       </c>
@@ -7171,7 +7456,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
         <v>30</v>
       </c>
@@ -7191,7 +7476,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
         <v>32</v>
       </c>
@@ -7211,7 +7496,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
         <v>34</v>
       </c>
@@ -7231,7 +7516,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
         <v>36</v>
       </c>
@@ -7251,7 +7536,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
         <v>38</v>
       </c>
@@ -7271,7 +7556,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
         <v>40</v>
       </c>
@@ -7291,7 +7576,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
         <v>42</v>
       </c>
@@ -7311,7 +7596,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
         <v>44</v>
       </c>
@@ -7331,7 +7616,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
         <v>46</v>
       </c>
@@ -7351,7 +7636,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
         <v>48</v>
       </c>
@@ -7371,7 +7656,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
         <v>50</v>
       </c>
@@ -7391,7 +7676,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
         <v>52</v>
       </c>
@@ -7411,7 +7696,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
         <v>54</v>
       </c>
@@ -7431,7 +7716,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="s">
         <v>56</v>
       </c>
@@ -7451,7 +7736,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
         <v>57</v>
       </c>
@@ -7471,7 +7756,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="15" t="s">
         <v>59</v>
       </c>
@@ -7491,7 +7776,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A33" s="15" t="s">
         <v>61</v>
       </c>
@@ -7511,7 +7796,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A34" s="15" t="s">
         <v>63</v>
       </c>
@@ -7531,7 +7816,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A35" s="15" t="s">
         <v>65</v>
       </c>
@@ -7551,7 +7836,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A36" s="15" t="s">
         <v>67</v>
       </c>
@@ -7571,7 +7856,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="15" t="s">
         <v>69</v>
       </c>
@@ -7591,7 +7876,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A38" s="15" t="s">
         <v>71</v>
       </c>
@@ -7611,7 +7896,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="15" t="s">
         <v>73</v>
       </c>
@@ -7631,7 +7916,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A40" s="15" t="s">
         <v>74</v>
       </c>
@@ -7651,7 +7936,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A41" s="15" t="s">
         <v>76</v>
       </c>
@@ -7671,7 +7956,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A42" s="15" t="s">
         <v>78</v>
       </c>
@@ -7691,7 +7976,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A43" s="15" t="s">
         <v>80</v>
       </c>
@@ -7711,7 +7996,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A44" s="15" t="s">
         <v>82</v>
       </c>
@@ -7731,7 +8016,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A45" s="15" t="s">
         <v>84</v>
       </c>
@@ -7751,7 +8036,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="15" t="s">
         <v>86</v>
       </c>
@@ -7771,7 +8056,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A47" s="15" t="s">
         <v>87</v>
       </c>
@@ -7791,7 +8076,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A48" s="15" t="s">
         <v>88</v>
       </c>
@@ -7811,7 +8096,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A49" s="15" t="s">
         <v>90</v>
       </c>
@@ -7831,7 +8116,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A50" s="15" t="s">
         <v>91</v>
       </c>
@@ -7851,7 +8136,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="15" t="s">
         <v>93</v>
       </c>
@@ -7871,7 +8156,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A52" s="15" t="s">
         <v>94</v>
       </c>
@@ -7891,7 +8176,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="15" t="s">
         <v>96</v>
       </c>
@@ -7911,7 +8196,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A54" s="15" t="s">
         <v>98</v>
       </c>
@@ -7931,7 +8216,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="15" t="s">
         <v>100</v>
       </c>
@@ -7951,7 +8236,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A56" s="15" t="s">
         <v>102</v>
       </c>
@@ -7971,7 +8256,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A57" s="15" t="s">
         <v>104</v>
       </c>
@@ -7991,7 +8276,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A58" s="15" t="s">
         <v>106</v>
       </c>
@@ -8011,7 +8296,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="15" t="s">
         <v>108</v>
       </c>
@@ -8031,7 +8316,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A60" s="15" t="s">
         <v>109</v>
       </c>
@@ -8051,7 +8336,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="15" t="s">
         <v>111</v>
       </c>
@@ -8071,7 +8356,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A62" s="15" t="s">
         <v>113</v>
       </c>
@@ -8091,7 +8376,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="15" t="s">
         <v>115</v>
       </c>
@@ -8111,7 +8396,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A64" s="15" t="s">
         <v>117</v>
       </c>
@@ -8131,7 +8416,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A65" s="15" t="s">
         <v>119</v>
       </c>
@@ -8151,7 +8436,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A66" s="15" t="s">
         <v>121</v>
       </c>
@@ -8171,7 +8456,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A67" s="15" t="s">
         <v>123</v>
       </c>
@@ -8191,7 +8476,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A68" s="15" t="s">
         <v>125</v>
       </c>
@@ -8211,7 +8496,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A69" s="15" t="s">
         <v>127</v>
       </c>
@@ -8231,7 +8516,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A70" s="15" t="s">
         <v>129</v>
       </c>
@@ -8251,7 +8536,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A71" s="15" t="s">
         <v>130</v>
       </c>
@@ -8271,7 +8556,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A72" s="15" t="s">
         <v>132</v>
       </c>
@@ -8291,7 +8576,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A73" s="15" t="s">
         <v>134</v>
       </c>
@@ -8311,7 +8596,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A74" s="15" t="s">
         <v>136</v>
       </c>
@@ -8331,7 +8616,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A75" s="15" t="s">
         <v>138</v>
       </c>
@@ -8351,7 +8636,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A76" s="15" t="s">
         <v>140</v>
       </c>
@@ -8371,7 +8656,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A77" s="15" t="s">
         <v>142</v>
       </c>
@@ -8391,7 +8676,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A78" s="15" t="s">
         <v>144</v>
       </c>
@@ -8411,7 +8696,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A79" s="15" t="s">
         <v>146</v>
       </c>
@@ -8431,7 +8716,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A80" s="15" t="s">
         <v>148</v>
       </c>
@@ -8451,7 +8736,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A81" s="15" t="s">
         <v>150</v>
       </c>
@@ -8471,7 +8756,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A82" s="15" t="s">
         <v>152</v>
       </c>
@@ -8491,7 +8776,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A83" s="15" t="s">
         <v>154</v>
       </c>
@@ -8511,7 +8796,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A84" s="15" t="s">
         <v>156</v>
       </c>
@@ -8531,7 +8816,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A85" s="15" t="s">
         <v>158</v>
       </c>
@@ -8551,7 +8836,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A86" s="15" t="s">
         <v>160</v>
       </c>
@@ -8571,7 +8856,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A87" s="15" t="s">
         <v>162</v>
       </c>
@@ -8591,7 +8876,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A88" s="15" t="s">
         <v>164</v>
       </c>
@@ -8611,7 +8896,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A89" s="15" t="s">
         <v>166</v>
       </c>
@@ -8631,7 +8916,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A90" s="15" t="s">
         <v>167</v>
       </c>
@@ -8651,7 +8936,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="15" t="s">
         <v>169</v>
       </c>
@@ -8671,7 +8956,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="15" t="s">
         <v>170</v>
       </c>
@@ -8691,7 +8976,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="15" t="s">
         <v>172</v>
       </c>
@@ -8711,7 +8996,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="15" t="s">
         <v>174</v>
       </c>
@@ -8731,7 +9016,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A95" s="15" t="s">
         <v>176</v>
       </c>
@@ -8751,7 +9036,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="15" t="s">
         <v>177</v>
       </c>
@@ -8771,7 +9056,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="15" t="s">
         <v>179</v>
       </c>
@@ -8791,7 +9076,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="15" t="s">
         <v>181</v>
       </c>
@@ -8811,7 +9096,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="15" t="s">
         <v>182</v>
       </c>
@@ -8831,7 +9116,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A100" s="15" t="s">
         <v>184</v>
       </c>
@@ -8851,7 +9136,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A101" s="15" t="s">
         <v>186</v>
       </c>
@@ -8871,7 +9156,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="15" t="s">
         <v>188</v>
       </c>
@@ -8891,7 +9176,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="15" t="s">
         <v>190</v>
       </c>
@@ -8911,7 +9196,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A104" s="15" t="s">
         <v>192</v>
       </c>
@@ -8931,7 +9216,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="15" t="s">
         <v>194</v>
       </c>
@@ -8951,7 +9236,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A106" s="15" t="s">
         <v>196</v>
       </c>
@@ -8971,7 +9256,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="15" t="s">
         <v>198</v>
       </c>
@@ -8991,7 +9276,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="15" t="s">
         <v>200</v>
       </c>
@@ -9011,7 +9296,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A109" s="15" t="s">
         <v>202</v>
       </c>
@@ -9031,7 +9316,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A110" s="15" t="s">
         <v>204</v>
       </c>
@@ -9051,7 +9336,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A111" s="15" t="s">
         <v>206</v>
       </c>
@@ -9071,7 +9356,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A112" s="15" t="s">
         <v>207</v>
       </c>
@@ -9091,7 +9376,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A113" s="15" t="s">
         <v>209</v>
       </c>
@@ -9111,7 +9396,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A114" s="15" t="s">
         <v>210</v>
       </c>
@@ -9131,7 +9416,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="15" t="s">
         <v>212</v>
       </c>
@@ -9151,7 +9436,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A116" s="15" t="s">
         <v>214</v>
       </c>
@@ -9171,7 +9456,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="117" spans="1:6" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A117" s="15" t="s">
         <v>216</v>
       </c>
@@ -9191,7 +9476,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="118" spans="1:6" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A118" s="15" t="s">
         <v>218</v>
       </c>
@@ -9211,7 +9496,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A119" s="15" t="s">
         <v>219</v>
       </c>
@@ -9231,7 +9516,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="15" t="s">
         <v>220</v>
       </c>
@@ -9251,7 +9536,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A121" s="15" t="s">
         <v>222</v>
       </c>
@@ -9271,7 +9556,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A122" s="15" t="s">
         <v>224</v>
       </c>
@@ -9291,7 +9576,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="123" spans="1:6" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A123" s="15" t="s">
         <v>225</v>
       </c>
@@ -9311,7 +9596,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="124" spans="1:6" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A124" s="15" t="s">
         <v>227</v>
       </c>
@@ -9331,7 +9616,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="15" t="s">
         <v>228</v>
       </c>
@@ -9351,7 +9636,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="126" spans="1:6" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A126" s="15" t="s">
         <v>230</v>
       </c>
@@ -9371,7 +9656,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="15" t="s">
         <v>231</v>
       </c>
@@ -9391,7 +9676,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="15" t="s">
         <v>233</v>
       </c>
@@ -9411,7 +9696,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="129" spans="1:6" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A129" s="15" t="s">
         <v>235</v>
       </c>
@@ -9431,7 +9716,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="130" spans="1:6" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A130" s="15" t="s">
         <v>237</v>
       </c>
@@ -9451,7 +9736,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="131" spans="1:6" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A131" s="15" t="s">
         <v>239</v>
       </c>
@@ -9471,7 +9756,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="132" spans="1:6" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A132" s="15" t="s">
         <v>241</v>
       </c>
@@ -9491,7 +9776,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="133" spans="1:6" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A133" s="15" t="s">
         <v>243</v>
       </c>
@@ -9511,7 +9796,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="15" t="s">
         <v>245</v>
       </c>
@@ -9531,7 +9816,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="135" spans="1:6" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A135" s="15" t="s">
         <v>247</v>
       </c>
@@ -9551,7 +9836,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A136" s="15" t="s">
         <v>248</v>
       </c>
@@ -9571,7 +9856,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A137" s="15" t="s">
         <v>250</v>
       </c>
@@ -9591,7 +9876,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A138" s="15" t="s">
         <v>252</v>
       </c>
@@ -9611,7 +9896,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="139" spans="1:6" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A139" s="15" t="s">
         <v>254</v>
       </c>
@@ -9631,7 +9916,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A140" s="15" t="s">
         <v>256</v>
       </c>
@@ -9651,7 +9936,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A141" s="15" t="s">
         <v>258</v>
       </c>
@@ -9671,7 +9956,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A142" s="15" t="s">
         <v>259</v>
       </c>
@@ -9691,7 +9976,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A143" s="15" t="s">
         <v>261</v>
       </c>
@@ -9711,7 +9996,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="144" spans="1:6" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A144" s="15" t="s">
         <v>263</v>
       </c>
@@ -9731,7 +10016,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="145" spans="1:6" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A145" s="15" t="s">
         <v>264</v>
       </c>
@@ -9751,7 +10036,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A146" s="15" t="s">
         <v>266</v>
       </c>
@@ -9771,7 +10056,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A147" s="15" t="s">
         <v>267</v>
       </c>
@@ -9791,7 +10076,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="148" spans="1:6" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A148" s="15" t="s">
         <v>269</v>
       </c>
@@ -9811,7 +10096,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="149" spans="1:6" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A149" s="15" t="s">
         <v>271</v>
       </c>
@@ -9831,7 +10116,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="150" spans="1:6" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A150" s="15" t="s">
         <v>272</v>
       </c>
@@ -9851,7 +10136,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="151" spans="1:6" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A151" s="15" t="s">
         <v>274</v>
       </c>
@@ -9871,7 +10156,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="152" spans="1:6" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A152" s="15" t="s">
         <v>275</v>
       </c>
@@ -9891,7 +10176,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="153" spans="1:6" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A153" s="15" t="s">
         <v>277</v>
       </c>
@@ -9911,7 +10196,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="154" spans="1:6" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A154" s="15" t="s">
         <v>278</v>
       </c>
@@ -9931,7 +10216,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="155" spans="1:6" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A155" s="15" t="s">
         <v>279</v>
       </c>
@@ -9951,7 +10236,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="156" spans="1:6" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A156" s="15" t="s">
         <v>281</v>
       </c>
@@ -9971,7 +10256,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="157" spans="1:6" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A157" s="15" t="s">
         <v>283</v>
       </c>
@@ -9991,7 +10276,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="158" spans="1:6" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A158" s="15" t="s">
         <v>285</v>
       </c>
@@ -10011,7 +10296,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="159" spans="1:6" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A159" s="15" t="s">
         <v>287</v>
       </c>
@@ -10031,7 +10316,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="160" spans="1:6" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A160" s="15" t="s">
         <v>289</v>
       </c>
@@ -10051,7 +10336,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="161" spans="1:6" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A161" s="15" t="s">
         <v>291</v>
       </c>
@@ -10071,7 +10356,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="162" spans="1:6" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A162" s="15" t="s">
         <v>293</v>
       </c>
@@ -10091,7 +10376,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="163" spans="1:6" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A163" s="15" t="s">
         <v>295</v>
       </c>
@@ -10111,7 +10396,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="15" t="s">
         <v>297</v>
       </c>
@@ -10131,7 +10416,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="165" spans="1:6" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A165" s="15" t="s">
         <v>298</v>
       </c>
@@ -10151,7 +10436,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="166" spans="1:6" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A166" s="15" t="s">
         <v>299</v>
       </c>
@@ -10171,7 +10456,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="167" spans="1:6" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A167" s="15" t="s">
         <v>300</v>
       </c>
@@ -10191,7 +10476,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="15" t="s">
         <v>302</v>
       </c>
@@ -10211,7 +10496,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="169" spans="1:6" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A169" s="15" t="s">
         <v>304</v>
       </c>
@@ -10231,7 +10516,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="170" spans="1:6" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A170" s="15" t="s">
         <v>306</v>
       </c>
@@ -10251,7 +10536,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="171" spans="1:6" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A171" s="15" t="s">
         <v>307</v>
       </c>
@@ -10271,7 +10556,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="172" spans="1:6" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A172" s="15" t="s">
         <v>309</v>
       </c>
@@ -10291,7 +10576,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="173" spans="1:6" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A173" s="15" t="s">
         <v>311</v>
       </c>
@@ -10311,7 +10596,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="15" t="s">
         <v>313</v>
       </c>
@@ -10331,7 +10616,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="175" spans="1:6" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A175" s="15" t="s">
         <v>315</v>
       </c>
@@ -10351,7 +10636,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="176" spans="1:6" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A176" s="15" t="s">
         <v>317</v>
       </c>
@@ -10371,7 +10656,7 @@
         <v>1519</v>
       </c>
     </row>
-    <row r="177" spans="1:6" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A177" s="15" t="s">
         <v>318</v>
       </c>
@@ -10391,7 +10676,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="178" spans="1:6" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A178" s="15" t="s">
         <v>319</v>
       </c>
@@ -10411,7 +10696,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="179" spans="1:6" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A179" s="15" t="s">
         <v>320</v>
       </c>
@@ -10431,7 +10716,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="180" spans="1:6" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A180" s="15" t="s">
         <v>321</v>
       </c>
@@ -10451,7 +10736,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="181" spans="1:6" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A181" s="15" t="s">
         <v>322</v>
       </c>
@@ -10471,7 +10756,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="182" spans="1:6" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A182" s="15" t="s">
         <v>324</v>
       </c>
@@ -10491,7 +10776,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="15" t="s">
         <v>326</v>
       </c>
@@ -10511,7 +10796,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="184" spans="1:6" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A184" s="15" t="s">
         <v>327</v>
       </c>
@@ -10531,7 +10816,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A185" s="15" t="s">
         <v>328</v>
       </c>
@@ -10551,7 +10836,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A186" s="15" t="s">
         <v>329</v>
       </c>
@@ -10571,7 +10856,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A187" s="15" t="s">
         <v>331</v>
       </c>
@@ -10591,7 +10876,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="188" spans="1:6" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A188" s="15" t="s">
         <v>333</v>
       </c>
@@ -10611,7 +10896,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A189" s="15" t="s">
         <v>335</v>
       </c>
@@ -10631,7 +10916,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A190" s="15" t="s">
         <v>336</v>
       </c>
@@ -10651,7 +10936,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="191" spans="1:6" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A191" s="15" t="s">
         <v>338</v>
       </c>
@@ -10671,7 +10956,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="192" spans="1:6" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:6" ht="39" x14ac:dyDescent="0.25">
       <c r="A192" s="15" t="s">
         <v>339</v>
       </c>
@@ -10691,7 +10976,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="193" spans="1:6" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:6" ht="39" x14ac:dyDescent="0.25">
       <c r="A193" s="15" t="s">
         <v>340</v>
       </c>
@@ -10711,7 +10996,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="194" spans="1:6" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:6" ht="39" x14ac:dyDescent="0.25">
       <c r="A194" s="15" t="s">
         <v>341</v>
       </c>
@@ -10731,7 +11016,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="195" spans="1:6" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:6" ht="39" x14ac:dyDescent="0.25">
       <c r="A195" s="15" t="s">
         <v>342</v>
       </c>
@@ -10751,7 +11036,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="196" spans="1:6" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:6" ht="39" x14ac:dyDescent="0.25">
       <c r="A196" s="15" t="s">
         <v>344</v>
       </c>
@@ -10771,7 +11056,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="197" spans="1:6" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:6" ht="39" x14ac:dyDescent="0.25">
       <c r="A197" s="15" t="s">
         <v>345</v>
       </c>
@@ -10791,7 +11076,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="198" spans="1:6" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A198" s="15" t="s">
         <v>346</v>
       </c>
@@ -10811,7 +11096,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="199" spans="1:6" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A199" s="15" t="s">
         <v>347</v>
       </c>
@@ -10831,7 +11116,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="200" spans="1:6" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A200" s="15" t="s">
         <v>348</v>
       </c>
@@ -10851,7 +11136,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="201" spans="1:6" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A201" s="15" t="s">
         <v>350</v>
       </c>
@@ -10871,7 +11156,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" s="15" t="s">
         <v>351</v>
       </c>
@@ -10891,7 +11176,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A203" s="15" t="s">
         <v>352</v>
       </c>
@@ -10911,7 +11196,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="204" spans="1:6" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A204" s="15" t="s">
         <v>353</v>
       </c>
@@ -10931,7 +11216,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="205" spans="1:6" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A205" s="15" t="s">
         <v>354</v>
       </c>
@@ -10951,7 +11236,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="206" spans="1:6" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A206" s="15" t="s">
         <v>355</v>
       </c>
@@ -10971,7 +11256,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="207" spans="1:6" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A207" s="15" t="s">
         <v>356</v>
       </c>
@@ -10991,7 +11276,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="208" spans="1:6" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A208" s="15" t="s">
         <v>357</v>
       </c>
@@ -11011,7 +11296,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="209" spans="1:6" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A209" s="15" t="s">
         <v>359</v>
       </c>
@@ -11031,7 +11316,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="210" spans="1:6" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A210" s="15" t="s">
         <v>360</v>
       </c>
@@ -11051,7 +11336,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="211" spans="1:6" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A211" s="15" t="s">
         <v>362</v>
       </c>
@@ -11071,7 +11356,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="212" spans="1:6" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A212" s="15" t="s">
         <v>363</v>
       </c>
@@ -11091,7 +11376,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="213" spans="1:6" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A213" s="15" t="s">
         <v>365</v>
       </c>
@@ -11111,7 +11396,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="214" spans="1:6" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A214" s="15" t="s">
         <v>367</v>
       </c>
@@ -11131,7 +11416,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="215" spans="1:6" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A215" s="15" t="s">
         <v>369</v>
       </c>
@@ -11151,7 +11436,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="216" spans="1:6" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A216" s="15" t="s">
         <v>371</v>
       </c>
@@ -11171,7 +11456,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="217" spans="1:6" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A217" s="15" t="s">
         <v>372</v>
       </c>
@@ -11191,7 +11476,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="218" spans="1:6" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A218" s="15" t="s">
         <v>374</v>
       </c>
@@ -11211,7 +11496,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="219" spans="1:6" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A219" s="15" t="s">
         <v>375</v>
       </c>
@@ -11231,7 +11516,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="220" spans="1:6" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A220" s="15" t="s">
         <v>376</v>
       </c>
@@ -11251,7 +11536,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="221" spans="1:6" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A221" s="15" t="s">
         <v>377</v>
       </c>
@@ -11271,7 +11556,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="222" spans="1:6" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A222" s="15" t="s">
         <v>378</v>
       </c>
@@ -11291,7 +11576,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="223" spans="1:6" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A223" s="15" t="s">
         <v>380</v>
       </c>
@@ -11311,7 +11596,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="224" spans="1:6" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A224" s="15" t="s">
         <v>382</v>
       </c>
@@ -11331,7 +11616,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="225" spans="1:6" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A225" s="15" t="s">
         <v>383</v>
       </c>
@@ -11351,7 +11636,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="226" spans="1:6" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A226" s="15" t="s">
         <v>385</v>
       </c>
@@ -11371,7 +11656,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="227" spans="1:6" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A227" s="15" t="s">
         <v>386</v>
       </c>
@@ -11391,7 +11676,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="228" spans="1:6" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A228" s="15" t="s">
         <v>388</v>
       </c>
@@ -11411,7 +11696,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="229" spans="1:6" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A229" s="15" t="s">
         <v>390</v>
       </c>
@@ -11431,7 +11716,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="230" spans="1:6" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A230" s="15" t="s">
         <v>391</v>
       </c>
@@ -11451,7 +11736,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="231" spans="1:6" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A231" s="15" t="s">
         <v>392</v>
       </c>
@@ -11471,7 +11756,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="232" spans="1:6" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A232" s="15" t="s">
         <v>393</v>
       </c>
@@ -11491,7 +11776,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="233" spans="1:6" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A233" s="15" t="s">
         <v>394</v>
       </c>
@@ -11511,7 +11796,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="234" spans="1:6" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A234" s="15" t="s">
         <v>395</v>
       </c>
@@ -11531,7 +11816,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="235" spans="1:6" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A235" s="15" t="s">
         <v>396</v>
       </c>
@@ -11551,7 +11836,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="236" spans="1:6" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A236" s="15" t="s">
         <v>397</v>
       </c>
@@ -11571,7 +11856,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="237" spans="1:6" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A237" s="15" t="s">
         <v>398</v>
       </c>
@@ -11591,7 +11876,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="238" spans="1:6" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A238" s="15" t="s">
         <v>400</v>
       </c>
@@ -11611,7 +11896,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="239" spans="1:6" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A239" s="15" t="s">
         <v>401</v>
       </c>
@@ -11631,7 +11916,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" s="15" t="s">
         <v>402</v>
       </c>
@@ -11651,7 +11936,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="241" spans="1:6" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A241" s="15" t="s">
         <v>403</v>
       </c>
@@ -11671,7 +11956,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="242" spans="1:6" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A242" s="15" t="s">
         <v>404</v>
       </c>
@@ -11691,7 +11976,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="243" spans="1:6" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A243" s="15" t="s">
         <v>405</v>
       </c>
@@ -11711,7 +11996,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244" s="15" t="s">
         <v>407</v>
       </c>
@@ -11731,7 +12016,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245" s="15" t="s">
         <v>409</v>
       </c>
@@ -11751,7 +12036,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246" s="15" t="s">
         <v>411</v>
       </c>
@@ -11771,7 +12056,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A247" s="15" t="s">
         <v>412</v>
       </c>
@@ -11791,7 +12076,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="248" spans="1:6" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A248" s="15" t="s">
         <v>413</v>
       </c>
@@ -11811,7 +12096,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="249" spans="1:6" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A249" s="15" t="s">
         <v>415</v>
       </c>
@@ -11831,7 +12116,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A250" s="15" t="s">
         <v>417</v>
       </c>
@@ -11851,7 +12136,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" s="15" t="s">
         <v>419</v>
       </c>
@@ -11871,7 +12156,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="252" spans="1:6" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A252" s="15" t="s">
         <v>421</v>
       </c>
@@ -11891,7 +12176,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="253" spans="1:6" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A253" s="15" t="s">
         <v>423</v>
       </c>
@@ -11911,7 +12196,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="254" spans="1:6" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="254" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A254" s="15" t="s">
         <v>424</v>
       </c>
@@ -11931,7 +12216,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="255" spans="1:6" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A255" s="15" t="s">
         <v>425</v>
       </c>
@@ -11951,7 +12236,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="256" spans="1:6" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="256" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A256" s="15" t="s">
         <v>426</v>
       </c>
@@ -11971,7 +12256,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="257" spans="1:6" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A257" s="15" t="s">
         <v>427</v>
       </c>
@@ -11991,7 +12276,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="258" spans="1:6" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="258" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A258" s="15" t="s">
         <v>429</v>
       </c>
@@ -12011,7 +12296,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259" s="15" t="s">
         <v>431</v>
       </c>
@@ -12031,7 +12316,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="260" spans="1:6" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="260" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A260" s="15" t="s">
         <v>432</v>
       </c>
@@ -12051,7 +12336,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261" s="15" t="s">
         <v>434</v>
       </c>
@@ -12071,7 +12356,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="262" spans="1:6" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="262" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A262" s="15" t="s">
         <v>436</v>
       </c>
@@ -12111,18 +12396,18 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.86328125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="20.73046875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="13.59765625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="9.1328125"/>
-    <col min="5" max="5" width="13.1328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9.140625"/>
+    <col min="5" max="5" width="13.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="89" style="2" customWidth="1"/>
     <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="8" customFormat="1" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" s="8" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>1512</v>
       </c>
@@ -12142,7 +12427,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -12164,7 +12449,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -12186,7 +12471,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -12205,7 +12490,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -12224,7 +12509,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -12246,7 +12531,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -12268,7 +12553,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -12290,7 +12575,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -12312,7 +12597,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="57" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -12331,7 +12616,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -12353,7 +12638,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -12375,7 +12660,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -12394,7 +12679,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>34</v>
       </c>
@@ -12416,7 +12701,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="57" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>42</v>
       </c>
@@ -12438,7 +12723,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>54</v>
       </c>
@@ -12460,7 +12745,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>73</v>
       </c>
@@ -12482,7 +12767,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>59</v>
       </c>
@@ -12501,7 +12786,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>98</v>
       </c>
@@ -12523,7 +12808,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="57" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>100</v>
       </c>
@@ -12545,7 +12830,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>102</v>
       </c>
@@ -12567,7 +12852,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>104</v>
       </c>
@@ -12586,7 +12871,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>129</v>
       </c>
@@ -12608,7 +12893,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>152</v>
       </c>
@@ -12630,7 +12915,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>136</v>
       </c>
@@ -12652,7 +12937,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>154</v>
       </c>
@@ -12674,7 +12959,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>156</v>
       </c>
@@ -12696,7 +12981,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>154</v>
       </c>
@@ -12718,7 +13003,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>158</v>
       </c>
@@ -12737,7 +13022,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>132</v>
       </c>
@@ -12756,7 +13041,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>146</v>
       </c>
@@ -12775,7 +13060,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>169</v>
       </c>
@@ -12797,7 +13082,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>170</v>
       </c>
@@ -12816,7 +13101,7 @@
         <v>1273</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>210</v>
       </c>
@@ -12838,7 +13123,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>219</v>
       </c>
@@ -12860,7 +13145,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>222</v>
       </c>
@@ -12882,7 +13167,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>224</v>
       </c>
@@ -12904,7 +13189,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>225</v>
       </c>
@@ -12926,7 +13211,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>225</v>
       </c>
@@ -12948,7 +13233,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="57" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>227</v>
       </c>
@@ -12970,7 +13255,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>227</v>
       </c>
@@ -12992,7 +13277,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>230</v>
       </c>
@@ -13014,7 +13299,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>230</v>
       </c>
@@ -13036,7 +13321,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>230</v>
       </c>
@@ -13058,7 +13343,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>230</v>
       </c>
@@ -13077,7 +13362,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>230</v>
       </c>
@@ -13099,7 +13384,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>230</v>
       </c>
@@ -13118,7 +13403,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>230</v>
       </c>
@@ -13140,7 +13425,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>237</v>
       </c>
@@ -13162,7 +13447,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>237</v>
       </c>
@@ -13184,7 +13469,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>237</v>
       </c>
@@ -13206,7 +13491,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>239</v>
       </c>
@@ -13228,7 +13513,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>248</v>
       </c>
@@ -13250,7 +13535,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>250</v>
       </c>
@@ -13272,7 +13557,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>256</v>
       </c>
@@ -13294,7 +13579,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="57" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>256</v>
       </c>
@@ -13316,7 +13601,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>263</v>
       </c>
@@ -13338,7 +13623,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="57" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>267</v>
       </c>
@@ -13360,7 +13645,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>267</v>
       </c>
@@ -13382,7 +13667,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>267</v>
       </c>
@@ -13401,7 +13686,7 @@
         <v>1267</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>267</v>
       </c>
@@ -13420,7 +13705,7 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>267</v>
       </c>
@@ -13439,7 +13724,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>271</v>
       </c>
@@ -13461,7 +13746,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>274</v>
       </c>
@@ -13480,7 +13765,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="57" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>274</v>
       </c>
@@ -13502,7 +13787,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>278</v>
       </c>
@@ -13524,7 +13809,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="57" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>278</v>
       </c>
@@ -13546,7 +13831,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="57" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>278</v>
       </c>
@@ -13568,7 +13853,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>279</v>
       </c>
@@ -13587,7 +13872,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>279</v>
       </c>
@@ -13609,7 +13894,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>283</v>
       </c>
@@ -13631,7 +13916,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>287</v>
       </c>
@@ -13653,7 +13938,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>289</v>
       </c>
@@ -13672,7 +13957,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>293</v>
       </c>
@@ -13694,7 +13979,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>298</v>
       </c>
@@ -13716,7 +14001,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>299</v>
       </c>
@@ -13738,7 +14023,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>304</v>
       </c>
@@ -13760,7 +14045,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>304</v>
       </c>
@@ -13782,7 +14067,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>307</v>
       </c>
@@ -13804,7 +14089,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>311</v>
       </c>
@@ -13826,7 +14111,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>313</v>
       </c>
@@ -13848,7 +14133,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="57" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>315</v>
       </c>
@@ -13870,7 +14155,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>318</v>
       </c>
@@ -13892,7 +14177,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>318</v>
       </c>
@@ -13914,7 +14199,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>318</v>
       </c>
@@ -13936,7 +14221,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>318</v>
       </c>
@@ -13958,7 +14243,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>318</v>
       </c>
@@ -13977,7 +14262,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>320</v>
       </c>
@@ -13999,7 +14284,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>320</v>
       </c>
@@ -14021,7 +14306,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>320</v>
       </c>
@@ -14043,7 +14328,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>320</v>
       </c>
@@ -14065,7 +14350,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>324</v>
       </c>
@@ -14087,7 +14372,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>331</v>
       </c>
@@ -14109,7 +14394,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>333</v>
       </c>
@@ -14128,7 +14413,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>340</v>
       </c>
@@ -14147,7 +14432,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>347</v>
       </c>
@@ -14166,7 +14451,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>348</v>
       </c>
@@ -14188,7 +14473,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>345</v>
       </c>
@@ -14210,7 +14495,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>345</v>
       </c>
@@ -14232,7 +14517,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>345</v>
       </c>
@@ -14254,7 +14539,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>353</v>
       </c>
@@ -14276,7 +14561,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>356</v>
       </c>
@@ -14298,7 +14583,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>359</v>
       </c>
@@ -14320,7 +14605,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>367</v>
       </c>
@@ -14342,7 +14627,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>369</v>
       </c>
@@ -14364,7 +14649,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>371</v>
       </c>
@@ -14386,7 +14671,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="57" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>372</v>
       </c>
@@ -14405,7 +14690,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>372</v>
       </c>
@@ -14427,7 +14712,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>374</v>
       </c>
@@ -14449,7 +14734,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>375</v>
       </c>
@@ -14468,7 +14753,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>375</v>
       </c>
@@ -14487,7 +14772,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>375</v>
       </c>
@@ -14509,7 +14794,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>376</v>
       </c>
@@ -14528,7 +14813,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>378</v>
       </c>
@@ -14550,7 +14835,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>380</v>
       </c>
@@ -14572,7 +14857,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>382</v>
       </c>
@@ -14591,7 +14876,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="117" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>383</v>
       </c>
@@ -14613,7 +14898,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="118" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>385</v>
       </c>
@@ -14632,7 +14917,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>392</v>
       </c>
@@ -14651,7 +14936,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="120" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>385</v>
       </c>
@@ -14673,7 +14958,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="121" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>386</v>
       </c>
@@ -14692,7 +14977,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="122" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>388</v>
       </c>
@@ -14714,7 +14999,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>388</v>
       </c>
@@ -14736,7 +15021,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>393</v>
       </c>
@@ -14758,7 +15043,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>393</v>
       </c>
@@ -14780,7 +15065,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="126" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>394</v>
       </c>
@@ -14802,7 +15087,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>394</v>
       </c>
@@ -14824,7 +15109,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="128" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>396</v>
       </c>
@@ -14843,7 +15128,7 @@
         <v>1244</v>
       </c>
     </row>
-    <row r="129" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>396</v>
       </c>
@@ -14862,7 +15147,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="130" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>396</v>
       </c>
@@ -14884,7 +15169,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="131" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>397</v>
       </c>
@@ -14903,7 +15188,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="132" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>397</v>
       </c>
@@ -14925,7 +15210,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="133" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>397</v>
       </c>
@@ -14947,7 +15232,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="134" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>405</v>
       </c>
@@ -14969,19 +15254,19 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D135" s="2"/>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D136" s="2"/>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D137" s="2"/>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D138" s="2"/>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D139" s="2"/>
     </row>
   </sheetData>
@@ -15002,15 +15287,15 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.1328125" customWidth="1"/>
-    <col min="2" max="2" width="13.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.1328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="94.73046875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="94.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>1012</v>
       </c>
@@ -15027,7 +15312,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>787</v>
       </c>
@@ -15041,7 +15326,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>792</v>
       </c>
@@ -15055,7 +15340,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>805</v>
       </c>
@@ -15069,7 +15354,7 @@
         <v>1285</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>783</v>
       </c>
@@ -15083,7 +15368,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>783</v>
       </c>
@@ -15097,7 +15382,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>783</v>
       </c>
@@ -15108,7 +15393,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>799</v>
       </c>
@@ -15122,7 +15407,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>780</v>
       </c>
@@ -15133,7 +15418,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>780</v>
       </c>
@@ -15144,7 +15429,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>780</v>
       </c>
@@ -15155,7 +15440,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>780</v>
       </c>
@@ -15166,7 +15451,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>780</v>
       </c>
@@ -15177,7 +15462,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>780</v>
       </c>
@@ -15188,7 +15473,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>780</v>
       </c>
@@ -15199,7 +15484,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>780</v>
       </c>
@@ -15210,7 +15495,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>780</v>
       </c>
@@ -15221,7 +15506,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="18" spans="2:5" ht="57" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:5" ht="60" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>804</v>
       </c>
@@ -15232,7 +15517,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="19" spans="2:5" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>804</v>
       </c>
@@ -15243,7 +15528,7 @@
         <v>1508</v>
       </c>
     </row>
-    <row r="20" spans="2:5" ht="57" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:5" ht="60" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>804</v>
       </c>
@@ -15254,7 +15539,7 @@
         <v>1509</v>
       </c>
     </row>
-    <row r="21" spans="2:5" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>779</v>
       </c>
@@ -15268,7 +15553,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>801</v>
       </c>
@@ -15282,7 +15567,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="23" spans="2:5" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>801</v>
       </c>
@@ -15296,7 +15581,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="24" spans="2:5" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>801</v>
       </c>
@@ -15310,7 +15595,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="25" spans="2:5" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>801</v>
       </c>
@@ -15324,7 +15609,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="26" spans="2:5" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>801</v>
       </c>
@@ -15338,7 +15623,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="27" spans="2:5" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:5" ht="90" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>801</v>
       </c>
@@ -15352,7 +15637,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="28" spans="2:5" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>801</v>
       </c>
@@ -15366,7 +15651,7 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="29" spans="2:5" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>801</v>
       </c>
@@ -15377,7 +15662,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="30" spans="2:5" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>801</v>
       </c>
@@ -15388,7 +15673,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="31" spans="2:5" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>801</v>
       </c>
@@ -15399,7 +15684,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="32" spans="2:5" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>801</v>
       </c>
@@ -15410,7 +15695,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="33" spans="2:5" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>801</v>
       </c>
@@ -15421,7 +15706,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="34" spans="2:5" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>801</v>
       </c>
@@ -15432,7 +15717,7 @@
         <v>1292</v>
       </c>
     </row>
-    <row r="35" spans="2:5" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>801</v>
       </c>
@@ -15443,7 +15728,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="36" spans="2:5" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>801</v>
       </c>
@@ -15454,7 +15739,7 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="37" spans="2:5" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>801</v>
       </c>
@@ -15465,7 +15750,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="38" spans="2:5" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>801</v>
       </c>
@@ -15476,7 +15761,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>801</v>
       </c>
@@ -15487,7 +15772,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="40" spans="2:5" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>802</v>
       </c>
@@ -15501,7 +15786,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="41" spans="2:5" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>802</v>
       </c>
@@ -15515,7 +15800,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="42" spans="2:5" ht="57" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:5" ht="60" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>802</v>
       </c>
@@ -15529,7 +15814,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>802</v>
       </c>
@@ -15543,7 +15828,7 @@
         <v>1276</v>
       </c>
     </row>
-    <row r="44" spans="2:5" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="44" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>802</v>
       </c>
@@ -15557,7 +15842,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>802</v>
       </c>
@@ -15568,7 +15853,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>802</v>
       </c>
@@ -15579,7 +15864,7 @@
         <v>1276</v>
       </c>
     </row>
-    <row r="47" spans="2:5" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="47" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>784</v>
       </c>
@@ -15593,7 +15878,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="48" spans="2:5" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>803</v>
       </c>
@@ -15607,7 +15892,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="49" spans="2:5" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="49" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>803</v>
       </c>
@@ -15621,7 +15906,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>781</v>
       </c>
@@ -15635,7 +15920,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="51" spans="2:5" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="51" spans="2:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>817</v>
       </c>
@@ -15646,7 +15931,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="52" spans="2:5" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="52" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>817</v>
       </c>
@@ -15657,7 +15942,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="53" spans="2:5" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="53" spans="2:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>817</v>
       </c>
@@ -15668,7 +15953,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="54" spans="2:5" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="54" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>782</v>
       </c>
@@ -15682,7 +15967,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="55" spans="2:5" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="55" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>798</v>
       </c>
@@ -15696,7 +15981,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>798</v>
       </c>
@@ -15710,7 +15995,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>798</v>
       </c>
@@ -15724,7 +16009,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>798</v>
       </c>
@@ -15738,7 +16023,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>798</v>
       </c>
@@ -15752,7 +16037,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="60" spans="2:5" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="60" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>798</v>
       </c>
@@ -15766,7 +16051,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>798</v>
       </c>
@@ -15780,7 +16065,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="62" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>798</v>
       </c>
@@ -15794,7 +16079,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>798</v>
       </c>
@@ -15808,7 +16093,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>798</v>
       </c>
@@ -15822,7 +16107,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>798</v>
       </c>
@@ -15833,7 +16118,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>798</v>
       </c>
@@ -15844,7 +16129,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="67" spans="2:5" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="67" spans="2:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
         <v>798</v>
       </c>
@@ -15855,7 +16140,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="68" spans="2:5" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="68" spans="2:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>797</v>
       </c>
@@ -15869,7 +16154,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="69" spans="2:5" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="69" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
         <v>797</v>
       </c>
@@ -15883,7 +16168,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="70" spans="2:5" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="70" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
         <v>797</v>
       </c>
@@ -15897,7 +16182,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="71" spans="2:5" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="71" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
         <v>797</v>
       </c>
@@ -15911,7 +16196,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="72" spans="2:5" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="72" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
         <v>797</v>
       </c>
@@ -15925,7 +16210,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="73" spans="2:5" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="73" spans="2:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
         <v>797</v>
       </c>
@@ -15939,7 +16224,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="74" spans="2:5" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="74" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
         <v>797</v>
       </c>
@@ -15953,7 +16238,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="75" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
         <v>797</v>
       </c>
@@ -15967,7 +16252,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="76" spans="2:5" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="76" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
         <v>797</v>
       </c>
@@ -15981,7 +16266,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="77" spans="2:5" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="77" spans="2:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
         <v>797</v>
       </c>
@@ -15992,7 +16277,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="78" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
         <v>797</v>
       </c>
@@ -16006,7 +16291,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="79" spans="2:5" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="79" spans="2:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
         <v>816</v>
       </c>
